--- a/docs/统计报表示例.xlsx
+++ b/docs/统计报表示例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\rpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2C9A73-EBE3-479F-8BA3-F7FBDBE2F49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E1D780-0B1E-41EF-B43E-C4908AF53B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="交易关系概况" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>审批状态比例</t>
   </si>
@@ -155,6 +155,21 @@
   </si>
   <si>
     <t>发票金额分布柱状图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复发票张数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最多转人工审批原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图像辨识度低</t>
+  </si>
+  <si>
+    <t>最频繁交易关系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -214,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -223,6 +238,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -246,15 +264,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>43543</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:colOff>48985</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>682065</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>153760</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1707</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>126547</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -283,7 +301,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="43543" y="1823357"/>
+          <a:off x="48985" y="2334986"/>
           <a:ext cx="4040308" cy="2461532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -296,15 +314,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>21772</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>21771</xdr:rowOff>
+      <xdr:colOff>48986</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>660294</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>148317</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1708</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>131989</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -333,7 +351,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="21772" y="4512128"/>
+          <a:off x="48986" y="4855028"/>
           <a:ext cx="4040308" cy="2461532"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -351,15 +369,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>53578</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>35719</xdr:rowOff>
+      <xdr:colOff>89297</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1372004</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>125622</xdr:rowOff>
+      <xdr:colOff>1407723</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>89902</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -382,7 +400,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="53578" y="1821657"/>
+          <a:off x="89297" y="2321719"/>
           <a:ext cx="4926020" cy="3125996"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -661,7 +679,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -770,9 +788,15 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -796,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7199C995-4220-4E36-8969-60C886BFC634}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -877,6 +901,22 @@
         <v>1500</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+    </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
         <v>33</v>
@@ -885,7 +925,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -893,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45FAA16-CA38-4595-A314-4A70C357AAA8}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/docs/统计报表示例.xlsx
+++ b/docs/统计报表示例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Horizon\Projects\Ongoing\rpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E1D780-0B1E-41EF-B43E-C4908AF53B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2AB6CC-294D-4FF5-BA02-A8EF809A5790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4335" yWindow="1035" windowWidth="28800" windowHeight="15345" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="交易关系概况" sheetId="3" r:id="rId1"/>
@@ -812,7 +812,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -820,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7199C995-4220-4E36-8969-60C886BFC634}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -934,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45FAA16-CA38-4595-A314-4A70C357AAA8}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -971,7 +972,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1004,7 +1005,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
